--- a/sourceData/AllDietsY.xlsx
+++ b/sourceData/AllDietsY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenlianfu/Documents/GitHub/IBS_FructanSensitivity/sourceData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{109D029C-001E-7B40-9CA0-DD52211BB430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC3BF456-BD7F-F540-B16F-AF4D5DF5D5DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6100" yWindow="7660" windowWidth="25640" windowHeight="13480" xr2:uid="{576801D9-277C-9C49-A34C-5D10E95155B9}"/>
   </bookViews>
